--- a/data/openlaw.xlsx
+++ b/data/openlaw.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6a089eb5b0364d8d/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6a089eb5b0364d8d/Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="11_DD26AE48F0DFD88A9E9D1E9F38AED5108DD1367D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="3760" windowWidth="51200" windowHeight="26580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -2847,8 +2847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
